--- a/06_R/inData/exam.xlsx
+++ b/06_R/inData/exam.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gray_Bigdata\src\06_R\inData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13020"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,11 +42,31 @@
     <t>science</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,7 +173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,7 +208,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,7 +419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -763,14 +790,103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1">
+        <v>98</v>
+      </c>
+      <c r="E2" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1">
+        <v>97</v>
+      </c>
+      <c r="E3" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1">
+        <v>86</v>
+      </c>
+      <c r="E4" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1">
+        <v>98</v>
+      </c>
+      <c r="E5" s="1">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
